--- a/New Excel file.xlsx
+++ b/New Excel file.xlsx
@@ -342,77 +342,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1">
+        <f>A1*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2">
+        <f t="shared" ref="B2:B13" si="0">A2*2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
